--- a/to_do.xlsx
+++ b/to_do.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janez\Documents\RESEARCH\CLANKI\Nagy Kolos clustering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF71F84-0263-47E5-9C59-1F75336FF870}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61801C3F-37D7-493F-8EC7-E703DC0BED94}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="7905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16409" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16421" uniqueCount="22">
   <si>
     <t>Janez</t>
   </si>
@@ -89,9 +89,6 @@
     <t>find UK faculty network</t>
   </si>
   <si>
-    <t xml:space="preserve">Evaluate resulst with internal measures and external measures </t>
-  </si>
-  <si>
     <t>omitted</t>
   </si>
   <si>
@@ -102,6 +99,24 @@
   </si>
   <si>
     <t>Explain the models (MIP, MSSC) in the overleaf paper</t>
+  </si>
+  <si>
+    <t>in progress</t>
+  </si>
+  <si>
+    <t>to do</t>
+  </si>
+  <si>
+    <t>Evaluate resulst with internal measures and external measures - janez provides code</t>
+  </si>
+  <si>
+    <t>add plain bechmark data</t>
+  </si>
+  <si>
+    <t>try to copute models with Gurobi on Cluster</t>
+  </si>
+  <si>
+    <t>provide Gurobi models</t>
   </si>
 </sst>
 </file>
@@ -462,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFD12"/>
+  <dimension ref="A1:XFD15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -49637,10 +49652,13 @@
     </row>
     <row r="3" spans="1:16384" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:16384" x14ac:dyDescent="0.45">
@@ -49650,6 +49668,9 @@
       <c r="B4" t="s">
         <v>0</v>
       </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:16384" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
@@ -49658,29 +49679,41 @@
       <c r="B5" t="s">
         <v>1</v>
       </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:16384" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:16384" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:16384" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:16384" x14ac:dyDescent="0.45">
@@ -49691,7 +49724,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:16384" x14ac:dyDescent="0.45">
@@ -49722,6 +49755,30 @@
       </c>
       <c r="C12" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16384" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16384" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16384" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
